--- a/casos_fallecidos.xlsx
+++ b/casos_fallecidos.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>43901</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -698,7 +698,7 @@
         <v>43938</v>
       </c>
       <c r="B39">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43947</v>
       </c>
       <c r="B48">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43956</v>
       </c>
       <c r="B57">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -858,7 +858,7 @@
         <v>43958</v>
       </c>
       <c r="B59">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43960</v>
       </c>
       <c r="B61">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -890,7 +890,7 @@
         <v>43962</v>
       </c>
       <c r="B63">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43963</v>
       </c>
       <c r="B64">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>43964</v>
       </c>
       <c r="B65">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -922,7 +922,7 @@
         <v>43966</v>
       </c>
       <c r="B67">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43969</v>
       </c>
       <c r="B70">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>43970</v>
       </c>
       <c r="B71">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -970,7 +970,7 @@
         <v>43972</v>
       </c>
       <c r="B73">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -986,7 +986,7 @@
         <v>43974</v>
       </c>
       <c r="B75">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>43975</v>
       </c>
       <c r="B76">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43976</v>
       </c>
       <c r="B77">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>43981</v>
       </c>
       <c r="B82">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>43982</v>
       </c>
       <c r="B83">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>43986</v>
       </c>
       <c r="B87">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>43989</v>
       </c>
       <c r="B90">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>43992</v>
       </c>
       <c r="B93">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>43993</v>
       </c>
       <c r="B94">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>43995</v>
       </c>
       <c r="B96">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>43997</v>
       </c>
       <c r="B98">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44000</v>
       </c>
       <c r="B101">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44004</v>
       </c>
       <c r="B105">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44005</v>
       </c>
       <c r="B106">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44006</v>
       </c>
       <c r="B107">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44007</v>
       </c>
       <c r="B108">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44010</v>
       </c>
       <c r="B111">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44013</v>
       </c>
       <c r="B114">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44015</v>
       </c>
       <c r="B116">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44016</v>
       </c>
       <c r="B117">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44017</v>
       </c>
       <c r="B118">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44021</v>
       </c>
       <c r="B122">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44028</v>
       </c>
       <c r="B129">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44029</v>
       </c>
       <c r="B130">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44032</v>
       </c>
       <c r="B133">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44036</v>
       </c>
       <c r="B137">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44037</v>
       </c>
       <c r="B138">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44038</v>
       </c>
       <c r="B139">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44045</v>
       </c>
       <c r="B146">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44047</v>
       </c>
       <c r="B148">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44049</v>
       </c>
       <c r="B150">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44051</v>
       </c>
       <c r="B152">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44057</v>
       </c>
       <c r="B158">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44058</v>
       </c>
       <c r="B159">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44059</v>
       </c>
       <c r="B160">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44060</v>
       </c>
       <c r="B161">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44063</v>
       </c>
       <c r="B164">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44066</v>
       </c>
       <c r="B167">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44069</v>
       </c>
       <c r="B170">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44070</v>
       </c>
       <c r="B171">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44073</v>
       </c>
       <c r="B174">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44074</v>
       </c>
       <c r="B175">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44077</v>
       </c>
       <c r="B178">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44079</v>
       </c>
       <c r="B180">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44089</v>
       </c>
       <c r="B190">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44091</v>
       </c>
       <c r="B192">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44094</v>
       </c>
       <c r="B195">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44098</v>
       </c>
       <c r="B199">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44101</v>
       </c>
       <c r="B202">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44103</v>
       </c>
       <c r="B204">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44105</v>
       </c>
       <c r="B206">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44108</v>
       </c>
       <c r="B209">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44109</v>
       </c>
       <c r="B210">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44122</v>
       </c>
       <c r="B223">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44134</v>
       </c>
       <c r="B235">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44138</v>
       </c>
       <c r="B239">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44140</v>
       </c>
       <c r="B241">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44141</v>
       </c>
       <c r="B242">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44158</v>
       </c>
       <c r="B259">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44159</v>
       </c>
       <c r="B260">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44162</v>
       </c>
       <c r="B263">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44165</v>
       </c>
       <c r="B266">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44170</v>
       </c>
       <c r="B271">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44178</v>
       </c>
       <c r="B279">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44182</v>
       </c>
       <c r="B283">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44183</v>
       </c>
       <c r="B284">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44184</v>
       </c>
       <c r="B285">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44217</v>
       </c>
       <c r="B318">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44236</v>
       </c>
       <c r="B337">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44240</v>
       </c>
       <c r="B341">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44255</v>
       </c>
       <c r="B356">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44265</v>
       </c>
       <c r="B366">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44269</v>
       </c>
       <c r="B370">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44284</v>
       </c>
       <c r="B385">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44287</v>
       </c>
       <c r="B388">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44288</v>
       </c>
       <c r="B389">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44327</v>
       </c>
       <c r="B428">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44401</v>
       </c>
       <c r="B502">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44514</v>
       </c>
       <c r="B615">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>44562</v>
       </c>
       <c r="B663">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44563</v>
       </c>
       <c r="B664">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44578</v>
       </c>
       <c r="B679">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>44581</v>
       </c>
       <c r="B682">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5898,7 +5898,7 @@
         <v>44588</v>
       </c>
       <c r="B689">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5906,7 +5906,7 @@
         <v>44589</v>
       </c>
       <c r="B690">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>44591</v>
       </c>
       <c r="B692">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>44592</v>
       </c>
       <c r="B693">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5938,7 +5938,15 @@
         <v>44593</v>
       </c>
       <c r="B694">
-        <v>87</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B695">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
